--- a/src/main/resources/ru/avem/kspem/app/protocolSG.xlsx
+++ b/src/main/resources/ru/avem/kspem/app/protocolSG.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="206">
   <si>
     <t xml:space="preserve">г. Новочеркасск</t>
   </si>
@@ -250,27 +250,153 @@
     <t xml:space="preserve">Определение тока и потерь КЗ</t>
   </si>
   <si>
-    <t xml:space="preserve">#kzUAB#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUBC#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUCA#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzIA#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzIB#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzIC#</t>
+    <t xml:space="preserve">I ов, А</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUAB1#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUBC1#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUCA1#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIA1#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIB1#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIC1#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIOV1#</t>
   </si>
   <si>
     <t xml:space="preserve">#kzP1#</t>
   </si>
   <si>
+    <t xml:space="preserve">#kzUAB2#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUBC2#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUCA2#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIA2#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIB2#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIC2#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIOV2#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzP2#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUAB3#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUBC3#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUCA3#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIA3#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIB3#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIC3#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIOV3#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzP3#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUAB4#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUBC4#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUCA4#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIA4#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIB4#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIC4#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIOV4#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzP4#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUAB5#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUBC5#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUCA5#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIA5#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIB5#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIC5#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIOV5#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzP5#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUAB6#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUBC6#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzUCA6#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIA6#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIB6#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIC6#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzIOV6#</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#kzP6#</t>
+  </si>
+  <si>
     <t xml:space="preserve">#kzResult#</t>
   </si>
   <si>
@@ -278,9 +404,6 @@
   </si>
   <si>
     <t xml:space="preserve">U ов, В</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I ов, А</t>
   </si>
   <si>
     <t xml:space="preserve">#h_hhuAB1#</t>
@@ -820,7 +943,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1001,6 +1124,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1071,6 +1198,10 @@
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -1174,13 +1305,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ79"/>
+  <dimension ref="A1:AMJ84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="55" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N59" activeCellId="0" sqref="N59"/>
+      <selection pane="topLeft" activeCell="P50" activeCellId="0" sqref="P50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.01953125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="17.71"/>
@@ -1999,7 +2130,7 @@
         <v>35</v>
       </c>
       <c r="I22" s="43"/>
-      <c r="J22" s="34"/>
+      <c r="J22" s="35"/>
       <c r="K22" s="22"/>
       <c r="L22" s="0"/>
       <c r="M22" s="0"/>
@@ -2079,7 +2210,7 @@
         <v>42</v>
       </c>
       <c r="I23" s="44"/>
-      <c r="J23" s="34"/>
+      <c r="J23" s="35"/>
       <c r="K23" s="22"/>
       <c r="L23" s="0"/>
       <c r="M23" s="0"/>
@@ -2136,7 +2267,7 @@
       <c r="BL23" s="29"/>
     </row>
     <row r="24" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="38"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="38"/>
       <c r="C24" s="38"/>
       <c r="D24" s="38"/>
@@ -2145,7 +2276,7 @@
       <c r="G24" s="38"/>
       <c r="H24" s="38"/>
       <c r="I24" s="38"/>
-      <c r="J24" s="38"/>
+      <c r="J24" s="39"/>
       <c r="K24" s="22"/>
       <c r="L24" s="0"/>
       <c r="M24" s="0"/>
@@ -2411,13 +2542,13 @@
         <v>44</v>
       </c>
       <c r="E28" s="25"/>
-      <c r="F28" s="45" t="s">
+      <c r="F28" s="46" t="s">
         <v>45</v>
       </c>
-      <c r="G28" s="45" t="s">
+      <c r="G28" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="H28" s="45"/>
+      <c r="H28" s="46"/>
       <c r="I28" s="34"/>
       <c r="J28" s="35"/>
       <c r="K28" s="33"/>
@@ -2551,15 +2682,15 @@
     </row>
     <row r="30" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A30" s="37"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="46"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-      <c r="I30" s="46"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="48"/>
       <c r="K30" s="32"/>
       <c r="L30" s="33"/>
       <c r="M30" s="33"/>
@@ -2693,7 +2824,7 @@
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="48"/>
+      <c r="J32" s="49"/>
       <c r="K32" s="22"/>
       <c r="L32" s="29"/>
       <c r="M32" s="29"/>
@@ -2965,15 +3096,15 @@
     </row>
     <row r="36" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="37"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="46"/>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-      <c r="I36" s="46"/>
-      <c r="J36" s="47"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="47"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="47"/>
+      <c r="J36" s="48"/>
       <c r="K36" s="32"/>
       <c r="L36" s="33"/>
       <c r="M36" s="33"/>
@@ -3096,18 +3227,18 @@
       <c r="BL37" s="29"/>
     </row>
     <row r="38" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50" t="s">
+      <c r="A38" s="50"/>
+      <c r="B38" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="G38" s="50"/>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="52"/>
       <c r="K38" s="33"/>
       <c r="L38" s="33"/>
       <c r="M38" s="33"/>
@@ -3164,16 +3295,16 @@
       <c r="BL38" s="33"/>
     </row>
     <row r="39" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="52"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="53"/>
+      <c r="A39" s="53"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="54"/>
       <c r="K39" s="33"/>
       <c r="L39" s="33"/>
       <c r="M39" s="33"/>
@@ -3230,32 +3361,32 @@
       <c r="BL39" s="33"/>
     </row>
     <row r="40" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="52"/>
-      <c r="B40" s="54" t="s">
+      <c r="A40" s="53"/>
+      <c r="B40" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="54" t="s">
+      <c r="C40" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="54" t="s">
+      <c r="D40" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F40" s="54" t="s">
+      <c r="F40" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="G40" s="54" t="s">
+      <c r="G40" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="H40" s="54" t="s">
+      <c r="H40" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="I40" s="54" t="s">
+      <c r="I40" s="55" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="55"/>
+      <c r="J40" s="56"/>
       <c r="K40" s="33"/>
       <c r="L40" s="33"/>
       <c r="M40" s="33"/>
@@ -3312,32 +3443,32 @@
       <c r="BL40" s="33"/>
     </row>
     <row r="41" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="52"/>
-      <c r="B41" s="54" t="s">
+      <c r="A41" s="53"/>
+      <c r="B41" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="54" t="s">
+      <c r="C41" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="54" t="s">
+      <c r="D41" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E41" s="54" t="s">
+      <c r="E41" s="55" t="s">
         <v>69</v>
       </c>
-      <c r="F41" s="54" t="s">
+      <c r="F41" s="55" t="s">
         <v>70</v>
       </c>
-      <c r="G41" s="54" t="s">
+      <c r="G41" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="H41" s="54" t="s">
+      <c r="H41" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="I41" s="54" t="s">
+      <c r="I41" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="J41" s="55"/>
+      <c r="J41" s="56"/>
       <c r="K41" s="33"/>
       <c r="L41" s="33"/>
       <c r="M41" s="33"/>
@@ -3394,16 +3525,16 @@
       <c r="BL41" s="33"/>
     </row>
     <row r="42" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="52"/>
-      <c r="B42" s="56"/>
-      <c r="C42" s="56"/>
-      <c r="D42" s="56"/>
-      <c r="E42" s="56"/>
-      <c r="F42" s="56"/>
-      <c r="G42" s="56"/>
-      <c r="H42" s="56"/>
-      <c r="I42" s="56"/>
-      <c r="J42" s="55"/>
+      <c r="A42" s="53"/>
+      <c r="B42" s="57"/>
+      <c r="C42" s="57"/>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="57"/>
+      <c r="I42" s="57"/>
+      <c r="J42" s="56"/>
       <c r="K42" s="33"/>
       <c r="L42" s="33"/>
       <c r="M42" s="33"/>
@@ -3460,20 +3591,20 @@
       <c r="BL42" s="33"/>
     </row>
     <row r="43" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A43" s="52"/>
-      <c r="B43" s="57" t="s">
+      <c r="A43" s="53"/>
+      <c r="B43" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="C43" s="57"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="54" t="s">
+      <c r="C43" s="58"/>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58"/>
+      <c r="F43" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="G43" s="54"/>
-      <c r="H43" s="54"/>
-      <c r="I43" s="54"/>
-      <c r="J43" s="58"/>
+      <c r="G43" s="55"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="55"/>
+      <c r="J43" s="59"/>
       <c r="K43" s="33"/>
       <c r="L43" s="33"/>
       <c r="M43" s="33"/>
@@ -3530,16 +3661,16 @@
       <c r="BL43" s="33"/>
     </row>
     <row r="44" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A44" s="52"/>
-      <c r="B44" s="57"/>
-      <c r="C44" s="57"/>
-      <c r="D44" s="57"/>
-      <c r="E44" s="57"/>
-      <c r="F44" s="54"/>
-      <c r="G44" s="54"/>
-      <c r="H44" s="54"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="58"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="58"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="58"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="55"/>
+      <c r="G44" s="55"/>
+      <c r="H44" s="55"/>
+      <c r="I44" s="55"/>
+      <c r="J44" s="59"/>
       <c r="K44" s="33"/>
       <c r="L44" s="33"/>
       <c r="M44" s="33"/>
@@ -3596,16 +3727,16 @@
       <c r="BL44" s="33"/>
     </row>
     <row r="45" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="59"/>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="60"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
-      <c r="H45" s="60"/>
-      <c r="I45" s="60"/>
-      <c r="J45" s="61"/>
+      <c r="A45" s="60"/>
+      <c r="B45" s="61"/>
+      <c r="C45" s="61"/>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="61"/>
+      <c r="I45" s="61"/>
+      <c r="J45" s="62"/>
       <c r="K45" s="33"/>
       <c r="L45" s="33"/>
       <c r="M45" s="33"/>
@@ -3728,18 +3859,18 @@
       <c r="BL46" s="33"/>
     </row>
     <row r="47" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A47" s="49"/>
-      <c r="B47" s="50" t="s">
+      <c r="A47" s="50"/>
+      <c r="B47" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="C47" s="50"/>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="50"/>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="52"/>
       <c r="K47" s="33"/>
       <c r="L47" s="33"/>
       <c r="M47" s="33"/>
@@ -3796,16 +3927,16 @@
       <c r="BL47" s="33"/>
     </row>
     <row r="48" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="52"/>
-      <c r="B48" s="50"/>
-      <c r="C48" s="50"/>
-      <c r="D48" s="50"/>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="G48" s="50"/>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="53"/>
+      <c r="A48" s="53"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="G48" s="51"/>
+      <c r="H48" s="51"/>
+      <c r="I48" s="51"/>
+      <c r="J48" s="54"/>
       <c r="K48" s="33"/>
       <c r="L48" s="33"/>
       <c r="M48" s="33"/>
@@ -3862,30 +3993,32 @@
       <c r="BL48" s="33"/>
     </row>
     <row r="49" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="52"/>
-      <c r="B49" s="54" t="s">
+      <c r="A49" s="53"/>
+      <c r="B49" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="C49" s="54" t="s">
+      <c r="C49" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="D49" s="54" t="s">
+      <c r="D49" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="54" t="s">
+      <c r="E49" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="F49" s="54" t="s">
+      <c r="F49" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="G49" s="54" t="s">
+      <c r="G49" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="H49" s="62" t="s">
+      <c r="H49" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="I49" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="I49" s="56"/>
-      <c r="J49" s="55"/>
+      <c r="J49" s="56"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
       <c r="M49" s="33"/>
@@ -3942,30 +4075,32 @@
       <c r="BL49" s="33"/>
     </row>
     <row r="50" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="52"/>
-      <c r="B50" s="54" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="54" t="s">
+      <c r="A50" s="53"/>
+      <c r="B50" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="C50" s="55" t="s">
         <v>78</v>
       </c>
-      <c r="E50" s="54" t="s">
+      <c r="D50" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="F50" s="54" t="s">
+      <c r="E50" s="55" t="s">
         <v>80</v>
       </c>
-      <c r="G50" s="54" t="s">
+      <c r="F50" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="H50" s="62" t="s">
+      <c r="G50" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="I50" s="56"/>
-      <c r="J50" s="55"/>
+      <c r="H50" s="63" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" s="63" t="s">
+        <v>84</v>
+      </c>
+      <c r="J50" s="56"/>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
       <c r="M50" s="33"/>
@@ -4022,16 +4157,32 @@
       <c r="BL50" s="33"/>
     </row>
     <row r="51" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="52"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="56"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="56"/>
-      <c r="F51" s="56"/>
-      <c r="G51" s="56"/>
-      <c r="H51" s="56"/>
-      <c r="I51" s="56"/>
-      <c r="J51" s="55"/>
+      <c r="A51" s="53"/>
+      <c r="B51" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" s="55" t="s">
+        <v>86</v>
+      </c>
+      <c r="D51" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="E51" s="55" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="55" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="H51" s="63" t="s">
+        <v>91</v>
+      </c>
+      <c r="I51" s="63" t="s">
+        <v>92</v>
+      </c>
+      <c r="J51" s="56"/>
       <c r="K51" s="33"/>
       <c r="L51" s="33"/>
       <c r="M51" s="33"/>
@@ -4088,20 +4239,32 @@
       <c r="BL51" s="33"/>
     </row>
     <row r="52" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="52"/>
-      <c r="B52" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="57"/>
-      <c r="F52" s="54" t="s">
-        <v>83</v>
-      </c>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="58"/>
+      <c r="A52" s="53"/>
+      <c r="B52" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C52" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="D52" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="E52" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="F52" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="G52" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="H52" s="63" t="s">
+        <v>99</v>
+      </c>
+      <c r="I52" s="63" t="s">
+        <v>100</v>
+      </c>
+      <c r="J52" s="56"/>
       <c r="K52" s="33"/>
       <c r="L52" s="33"/>
       <c r="M52" s="33"/>
@@ -4158,16 +4321,32 @@
       <c r="BL52" s="33"/>
     </row>
     <row r="53" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="52"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="57"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="58"/>
+      <c r="A53" s="53"/>
+      <c r="B53" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="D53" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E53" s="55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" s="55" t="s">
+        <v>105</v>
+      </c>
+      <c r="G53" s="55" t="s">
+        <v>106</v>
+      </c>
+      <c r="H53" s="63" t="s">
+        <v>107</v>
+      </c>
+      <c r="I53" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="J53" s="56"/>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
       <c r="M53" s="33"/>
@@ -4224,16 +4403,32 @@
       <c r="BL53" s="33"/>
     </row>
     <row r="54" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="60"/>
-      <c r="F54" s="60"/>
-      <c r="G54" s="60"/>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
-      <c r="J54" s="61"/>
+      <c r="A54" s="53"/>
+      <c r="B54" s="55" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D54" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" s="55" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" s="55" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" s="63" t="s">
+        <v>115</v>
+      </c>
+      <c r="I54" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="J54" s="56"/>
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
       <c r="M54" s="33"/>
@@ -4290,16 +4485,32 @@
       <c r="BL54" s="33"/>
     </row>
     <row r="55" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="0"/>
-      <c r="B55" s="0"/>
-      <c r="C55" s="0"/>
-      <c r="D55" s="0"/>
-      <c r="E55" s="0"/>
-      <c r="F55" s="0"/>
-      <c r="G55" s="0"/>
-      <c r="H55" s="0"/>
-      <c r="I55" s="0"/>
-      <c r="J55" s="0"/>
+      <c r="A55" s="53"/>
+      <c r="B55" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="C55" s="55" t="s">
+        <v>118</v>
+      </c>
+      <c r="D55" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E55" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="F55" s="55" t="s">
+        <v>121</v>
+      </c>
+      <c r="G55" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="H55" s="63" t="s">
+        <v>123</v>
+      </c>
+      <c r="I55" s="63" t="s">
+        <v>124</v>
+      </c>
+      <c r="J55" s="56"/>
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
       <c r="M55" s="33"/>
@@ -4356,18 +4567,16 @@
       <c r="BL55" s="33"/>
     </row>
     <row r="56" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="26"/>
-      <c r="B56" s="27" t="s">
-        <v>84</v>
-      </c>
-      <c r="C56" s="27"/>
-      <c r="D56" s="27"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="27"/>
-      <c r="G56" s="27"/>
-      <c r="H56" s="27"/>
-      <c r="I56" s="27"/>
-      <c r="J56" s="41"/>
+      <c r="A56" s="53"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="57"/>
+      <c r="F56" s="57"/>
+      <c r="G56" s="57"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
+      <c r="J56" s="56"/>
       <c r="K56" s="33"/>
       <c r="L56" s="33"/>
       <c r="M56" s="33"/>
@@ -4424,16 +4633,20 @@
       <c r="BL56" s="33"/>
     </row>
     <row r="57" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="30"/>
-      <c r="B57" s="27"/>
-      <c r="C57" s="27"/>
-      <c r="D57" s="27"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="27"/>
-      <c r="G57" s="27"/>
-      <c r="H57" s="27"/>
-      <c r="I57" s="27"/>
-      <c r="J57" s="31"/>
+      <c r="A57" s="53"/>
+      <c r="B57" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C57" s="58"/>
+      <c r="D57" s="58"/>
+      <c r="E57" s="58"/>
+      <c r="F57" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="G57" s="55"/>
+      <c r="H57" s="55"/>
+      <c r="I57" s="55"/>
+      <c r="J57" s="59"/>
       <c r="K57" s="33"/>
       <c r="L57" s="33"/>
       <c r="M57" s="33"/>
@@ -4490,32 +4703,16 @@
       <c r="BL57" s="33"/>
     </row>
     <row r="58" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="30"/>
-      <c r="B58" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="D58" s="54" t="s">
-        <v>61</v>
-      </c>
-      <c r="E58" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="G58" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="H58" s="62" t="s">
-        <v>85</v>
-      </c>
-      <c r="I58" s="62" t="s">
-        <v>86</v>
-      </c>
-      <c r="J58" s="35"/>
+      <c r="A58" s="53"/>
+      <c r="B58" s="58"/>
+      <c r="C58" s="58"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="55"/>
+      <c r="G58" s="55"/>
+      <c r="H58" s="55"/>
+      <c r="I58" s="55"/>
+      <c r="J58" s="59"/>
       <c r="K58" s="33"/>
       <c r="L58" s="33"/>
       <c r="M58" s="33"/>
@@ -4572,32 +4769,16 @@
       <c r="BL58" s="33"/>
     </row>
     <row r="59" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A59" s="30"/>
-      <c r="B59" s="54" t="s">
-        <v>87</v>
-      </c>
-      <c r="C59" s="54" t="s">
-        <v>88</v>
-      </c>
-      <c r="D59" s="54" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="F59" s="54" t="s">
-        <v>91</v>
-      </c>
-      <c r="G59" s="54" t="s">
-        <v>92</v>
-      </c>
-      <c r="H59" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="I59" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="J59" s="35"/>
+      <c r="A59" s="60"/>
+      <c r="B59" s="61"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="61"/>
+      <c r="F59" s="61"/>
+      <c r="G59" s="61"/>
+      <c r="H59" s="61"/>
+      <c r="I59" s="61"/>
+      <c r="J59" s="62"/>
       <c r="K59" s="33"/>
       <c r="L59" s="33"/>
       <c r="M59" s="33"/>
@@ -4654,32 +4835,16 @@
       <c r="BL59" s="33"/>
     </row>
     <row r="60" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="30"/>
-      <c r="B60" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="C60" s="54" t="s">
-        <v>96</v>
-      </c>
-      <c r="D60" s="54" t="s">
-        <v>97</v>
-      </c>
-      <c r="E60" s="54" t="s">
-        <v>98</v>
-      </c>
-      <c r="F60" s="54" t="s">
-        <v>99</v>
-      </c>
-      <c r="G60" s="54" t="s">
-        <v>100</v>
-      </c>
-      <c r="H60" s="62" t="s">
-        <v>101</v>
-      </c>
-      <c r="I60" s="62" t="s">
-        <v>102</v>
-      </c>
-      <c r="J60" s="35"/>
+      <c r="A60" s="0"/>
+      <c r="B60" s="0"/>
+      <c r="C60" s="0"/>
+      <c r="D60" s="0"/>
+      <c r="E60" s="0"/>
+      <c r="F60" s="0"/>
+      <c r="G60" s="0"/>
+      <c r="H60" s="0"/>
+      <c r="I60" s="0"/>
+      <c r="J60" s="0"/>
       <c r="K60" s="33"/>
       <c r="L60" s="33"/>
       <c r="M60" s="33"/>
@@ -4736,32 +4901,18 @@
       <c r="BL60" s="33"/>
     </row>
     <row r="61" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="30"/>
-      <c r="B61" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C61" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D61" s="54" t="s">
-        <v>105</v>
-      </c>
-      <c r="E61" s="54" t="s">
-        <v>106</v>
-      </c>
-      <c r="F61" s="54" t="s">
-        <v>107</v>
-      </c>
-      <c r="G61" s="54" t="s">
-        <v>108</v>
-      </c>
-      <c r="H61" s="62" t="s">
-        <v>109</v>
-      </c>
-      <c r="I61" s="62" t="s">
-        <v>110</v>
-      </c>
-      <c r="J61" s="35"/>
+      <c r="A61" s="26"/>
+      <c r="B61" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C61" s="27"/>
+      <c r="D61" s="27"/>
+      <c r="E61" s="27"/>
+      <c r="F61" s="27"/>
+      <c r="G61" s="27"/>
+      <c r="H61" s="27"/>
+      <c r="I61" s="27"/>
+      <c r="J61" s="41"/>
       <c r="K61" s="33"/>
       <c r="L61" s="33"/>
       <c r="M61" s="33"/>
@@ -4819,31 +4970,15 @@
     </row>
     <row r="62" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="30"/>
-      <c r="B62" s="54" t="s">
-        <v>111</v>
-      </c>
-      <c r="C62" s="54" t="s">
-        <v>112</v>
-      </c>
-      <c r="D62" s="54" t="s">
-        <v>113</v>
-      </c>
-      <c r="E62" s="54" t="s">
-        <v>114</v>
-      </c>
-      <c r="F62" s="54" t="s">
-        <v>115</v>
-      </c>
-      <c r="G62" s="54" t="s">
-        <v>116</v>
-      </c>
-      <c r="H62" s="62" t="s">
-        <v>117</v>
-      </c>
-      <c r="I62" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="J62" s="35"/>
+      <c r="B62" s="27"/>
+      <c r="C62" s="27"/>
+      <c r="D62" s="27"/>
+      <c r="E62" s="27"/>
+      <c r="F62" s="27"/>
+      <c r="G62" s="27"/>
+      <c r="H62" s="27"/>
+      <c r="I62" s="27"/>
+      <c r="J62" s="31"/>
       <c r="K62" s="33"/>
       <c r="L62" s="33"/>
       <c r="M62" s="33"/>
@@ -4900,32 +5035,32 @@
       <c r="BL62" s="33"/>
     </row>
     <row r="63" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A63" s="34"/>
-      <c r="B63" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="D63" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E63" s="54" t="s">
-        <v>122</v>
-      </c>
-      <c r="F63" s="54" t="s">
-        <v>123</v>
-      </c>
-      <c r="G63" s="54" t="s">
-        <v>124</v>
-      </c>
-      <c r="H63" s="62" t="s">
-        <v>125</v>
-      </c>
-      <c r="I63" s="62" t="s">
-        <v>126</v>
-      </c>
-      <c r="J63" s="34"/>
+      <c r="A63" s="30"/>
+      <c r="B63" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="D63" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E63" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="F63" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="G63" s="55" t="s">
+        <v>64</v>
+      </c>
+      <c r="H63" s="63" t="s">
+        <v>127</v>
+      </c>
+      <c r="I63" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="J63" s="35"/>
       <c r="K63" s="33"/>
       <c r="L63" s="33"/>
       <c r="M63" s="33"/>
@@ -4982,32 +5117,32 @@
       <c r="BL63" s="33"/>
     </row>
     <row r="64" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="34"/>
-      <c r="B64" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="C64" s="54" t="s">
+      <c r="A64" s="30"/>
+      <c r="B64" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="D64" s="54" t="s">
+      <c r="C64" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="E64" s="54" t="s">
+      <c r="D64" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="F64" s="54" t="s">
+      <c r="E64" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="G64" s="54" t="s">
+      <c r="F64" s="55" t="s">
         <v>132</v>
       </c>
-      <c r="H64" s="62" t="s">
+      <c r="G64" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="I64" s="62" t="s">
+      <c r="H64" s="63" t="s">
         <v>134</v>
       </c>
-      <c r="J64" s="34"/>
+      <c r="I64" s="63" t="s">
+        <v>135</v>
+      </c>
+      <c r="J64" s="35"/>
       <c r="K64" s="33"/>
       <c r="L64" s="33"/>
       <c r="M64" s="33"/>
@@ -5064,32 +5199,32 @@
       <c r="BL64" s="33"/>
     </row>
     <row r="65" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A65" s="34"/>
-      <c r="B65" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C65" s="54" t="s">
+      <c r="A65" s="30"/>
+      <c r="B65" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="D65" s="54" t="s">
+      <c r="C65" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="54" t="s">
+      <c r="D65" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="F65" s="54" t="s">
+      <c r="E65" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="G65" s="54" t="s">
+      <c r="F65" s="55" t="s">
         <v>140</v>
       </c>
-      <c r="H65" s="62" t="s">
+      <c r="G65" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="I65" s="62" t="s">
+      <c r="H65" s="63" t="s">
         <v>142</v>
       </c>
-      <c r="J65" s="34"/>
+      <c r="I65" s="63" t="s">
+        <v>143</v>
+      </c>
+      <c r="J65" s="35"/>
       <c r="K65" s="33"/>
       <c r="L65" s="33"/>
       <c r="M65" s="33"/>
@@ -5146,32 +5281,32 @@
       <c r="BL65" s="33"/>
     </row>
     <row r="66" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="34"/>
-      <c r="B66" s="54" t="s">
-        <v>143</v>
-      </c>
-      <c r="C66" s="54" t="s">
+      <c r="A66" s="30"/>
+      <c r="B66" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="D66" s="54" t="s">
+      <c r="C66" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="E66" s="54" t="s">
+      <c r="D66" s="55" t="s">
         <v>146</v>
       </c>
-      <c r="F66" s="54" t="s">
+      <c r="E66" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="G66" s="54" t="s">
+      <c r="F66" s="55" t="s">
         <v>148</v>
       </c>
-      <c r="H66" s="62" t="s">
+      <c r="G66" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="I66" s="62" t="s">
+      <c r="H66" s="63" t="s">
         <v>150</v>
       </c>
-      <c r="J66" s="34"/>
+      <c r="I66" s="63" t="s">
+        <v>151</v>
+      </c>
+      <c r="J66" s="35"/>
       <c r="K66" s="33"/>
       <c r="L66" s="33"/>
       <c r="M66" s="33"/>
@@ -5228,32 +5363,32 @@
       <c r="BL66" s="33"/>
     </row>
     <row r="67" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="34"/>
-      <c r="B67" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="C67" s="54" t="s">
+      <c r="A67" s="30"/>
+      <c r="B67" s="55" t="s">
         <v>152</v>
       </c>
-      <c r="D67" s="54" t="s">
+      <c r="C67" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="E67" s="54" t="s">
+      <c r="D67" s="55" t="s">
         <v>154</v>
       </c>
-      <c r="F67" s="54" t="s">
+      <c r="E67" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="G67" s="54" t="s">
+      <c r="F67" s="55" t="s">
         <v>156</v>
       </c>
-      <c r="H67" s="62" t="s">
+      <c r="G67" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="I67" s="62" t="s">
+      <c r="H67" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="J67" s="34"/>
+      <c r="I67" s="63" t="s">
+        <v>159</v>
+      </c>
+      <c r="J67" s="35"/>
       <c r="K67" s="33"/>
       <c r="L67" s="33"/>
       <c r="M67" s="33"/>
@@ -5310,16 +5445,32 @@
       <c r="BL67" s="33"/>
     </row>
     <row r="68" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="34"/>
-      <c r="B68" s="34"/>
-      <c r="C68" s="34"/>
-      <c r="D68" s="34"/>
-      <c r="E68" s="34"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="34"/>
-      <c r="H68" s="34"/>
-      <c r="I68" s="34"/>
-      <c r="J68" s="34"/>
+      <c r="A68" s="64"/>
+      <c r="B68" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="C68" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="F68" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="G68" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="H68" s="63" t="s">
+        <v>166</v>
+      </c>
+      <c r="I68" s="63" t="s">
+        <v>167</v>
+      </c>
+      <c r="J68" s="35"/>
       <c r="K68" s="33"/>
       <c r="L68" s="33"/>
       <c r="M68" s="33"/>
@@ -5376,20 +5527,32 @@
       <c r="BL68" s="33"/>
     </row>
     <row r="69" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="34"/>
-      <c r="B69" s="57" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
-      <c r="F69" s="54" t="s">
-        <v>159</v>
-      </c>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="34"/>
+      <c r="A69" s="64"/>
+      <c r="B69" s="55" t="s">
+        <v>168</v>
+      </c>
+      <c r="C69" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="D69" s="55" t="s">
+        <v>170</v>
+      </c>
+      <c r="E69" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="F69" s="55" t="s">
+        <v>172</v>
+      </c>
+      <c r="G69" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="H69" s="63" t="s">
+        <v>174</v>
+      </c>
+      <c r="I69" s="63" t="s">
+        <v>175</v>
+      </c>
+      <c r="J69" s="35"/>
       <c r="K69" s="33"/>
       <c r="L69" s="33"/>
       <c r="M69" s="33"/>
@@ -5446,16 +5609,32 @@
       <c r="BL69" s="33"/>
     </row>
     <row r="70" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="34"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
-      <c r="E70" s="57"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="54"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="34"/>
+      <c r="A70" s="64"/>
+      <c r="B70" s="55" t="s">
+        <v>176</v>
+      </c>
+      <c r="C70" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D70" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="E70" s="55" t="s">
+        <v>179</v>
+      </c>
+      <c r="F70" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="G70" s="55" t="s">
+        <v>181</v>
+      </c>
+      <c r="H70" s="63" t="s">
+        <v>182</v>
+      </c>
+      <c r="I70" s="63" t="s">
+        <v>183</v>
+      </c>
+      <c r="J70" s="35"/>
       <c r="K70" s="33"/>
       <c r="L70" s="33"/>
       <c r="M70" s="33"/>
@@ -5512,16 +5691,32 @@
       <c r="BL70" s="33"/>
     </row>
     <row r="71" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="37"/>
-      <c r="B71" s="38"/>
-      <c r="C71" s="38"/>
-      <c r="D71" s="38"/>
-      <c r="E71" s="38"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-      <c r="I71" s="38"/>
-      <c r="J71" s="39"/>
+      <c r="A71" s="64"/>
+      <c r="B71" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="D71" s="55" t="s">
+        <v>186</v>
+      </c>
+      <c r="E71" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="F71" s="55" t="s">
+        <v>188</v>
+      </c>
+      <c r="G71" s="55" t="s">
+        <v>189</v>
+      </c>
+      <c r="H71" s="63" t="s">
+        <v>190</v>
+      </c>
+      <c r="I71" s="63" t="s">
+        <v>191</v>
+      </c>
+      <c r="J71" s="35"/>
       <c r="K71" s="33"/>
       <c r="L71" s="33"/>
       <c r="M71" s="33"/>
@@ -5578,16 +5773,32 @@
       <c r="BL71" s="33"/>
     </row>
     <row r="72" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="0"/>
-      <c r="B72" s="0"/>
-      <c r="C72" s="0"/>
-      <c r="D72" s="0"/>
-      <c r="E72" s="0"/>
-      <c r="F72" s="0"/>
-      <c r="G72" s="0"/>
-      <c r="H72" s="0"/>
-      <c r="I72" s="0"/>
-      <c r="J72" s="0"/>
+      <c r="A72" s="64"/>
+      <c r="B72" s="55" t="s">
+        <v>192</v>
+      </c>
+      <c r="C72" s="55" t="s">
+        <v>193</v>
+      </c>
+      <c r="D72" s="55" t="s">
+        <v>194</v>
+      </c>
+      <c r="E72" s="55" t="s">
+        <v>195</v>
+      </c>
+      <c r="F72" s="55" t="s">
+        <v>196</v>
+      </c>
+      <c r="G72" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="H72" s="63" t="s">
+        <v>198</v>
+      </c>
+      <c r="I72" s="63" t="s">
+        <v>199</v>
+      </c>
+      <c r="J72" s="35"/>
       <c r="K72" s="33"/>
       <c r="L72" s="33"/>
       <c r="M72" s="33"/>
@@ -5644,16 +5855,16 @@
       <c r="BL72" s="33"/>
     </row>
     <row r="73" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="0"/>
-      <c r="B73" s="0"/>
-      <c r="C73" s="0"/>
-      <c r="D73" s="0"/>
-      <c r="E73" s="0"/>
-      <c r="F73" s="0"/>
-      <c r="G73" s="0"/>
-      <c r="H73" s="0"/>
-      <c r="I73" s="0"/>
-      <c r="J73" s="0"/>
+      <c r="A73" s="64"/>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="35"/>
       <c r="K73" s="33"/>
       <c r="L73" s="33"/>
       <c r="M73" s="33"/>
@@ -5709,132 +5920,353 @@
       <c r="BK73" s="33"/>
       <c r="BL73" s="33"/>
     </row>
-    <row r="74" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1"/>
-      <c r="B74" s="63" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="63"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
-      <c r="I74" s="64"/>
-      <c r="J74" s="63"/>
-      <c r="K74" s="22"/>
-      <c r="AMC74" s="0"/>
-      <c r="AMD74" s="0"/>
-      <c r="AME74" s="0"/>
-      <c r="AMF74" s="0"/>
-      <c r="AMG74" s="0"/>
-      <c r="AMH74" s="0"/>
-      <c r="AMI74" s="0"/>
-      <c r="AMJ74" s="0"/>
-    </row>
-    <row r="75" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-      <c r="I75" s="64"/>
-      <c r="J75" s="63"/>
-      <c r="K75" s="22"/>
-      <c r="AMC75" s="0"/>
-      <c r="AMD75" s="0"/>
-      <c r="AME75" s="0"/>
-      <c r="AMF75" s="0"/>
-      <c r="AMG75" s="0"/>
-      <c r="AMH75" s="0"/>
-      <c r="AMI75" s="0"/>
-      <c r="AMJ75" s="0"/>
-    </row>
-    <row r="76" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="1"/>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
-      <c r="I76" s="64"/>
-      <c r="J76" s="63"/>
-      <c r="K76" s="22"/>
-      <c r="AMC76" s="0"/>
-      <c r="AMD76" s="0"/>
-      <c r="AME76" s="0"/>
-      <c r="AMF76" s="0"/>
-      <c r="AMG76" s="0"/>
-      <c r="AMH76" s="0"/>
-      <c r="AMI76" s="0"/>
-      <c r="AMJ76" s="0"/>
-    </row>
-    <row r="77" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="1"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-      <c r="I77" s="64"/>
-      <c r="J77" s="63"/>
-      <c r="K77" s="22"/>
-      <c r="AMC77" s="0"/>
-      <c r="AMD77" s="0"/>
-      <c r="AME77" s="0"/>
-      <c r="AMF77" s="0"/>
-      <c r="AMG77" s="0"/>
-      <c r="AMH77" s="0"/>
-      <c r="AMI77" s="0"/>
-      <c r="AMJ77" s="0"/>
-    </row>
-    <row r="78" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="65"/>
-      <c r="B78" s="65"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="65"/>
-      <c r="H78" s="65"/>
-      <c r="I78" s="65"/>
-      <c r="J78" s="65"/>
-      <c r="K78" s="22"/>
-      <c r="AMC78" s="0"/>
-      <c r="AMD78" s="0"/>
-      <c r="AME78" s="0"/>
-      <c r="AMF78" s="0"/>
-      <c r="AMG78" s="0"/>
-      <c r="AMH78" s="0"/>
-      <c r="AMI78" s="0"/>
-      <c r="AMJ78" s="0"/>
+    <row r="74" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="64"/>
+      <c r="B74" s="58" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="58"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="55" t="s">
+        <v>200</v>
+      </c>
+      <c r="G74" s="55"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="35"/>
+      <c r="K74" s="33"/>
+      <c r="L74" s="33"/>
+      <c r="M74" s="33"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="33"/>
+      <c r="V74" s="33"/>
+      <c r="W74" s="33"/>
+      <c r="X74" s="33"/>
+      <c r="Y74" s="33"/>
+      <c r="Z74" s="33"/>
+      <c r="AA74" s="33"/>
+      <c r="AB74" s="33"/>
+      <c r="AC74" s="33"/>
+      <c r="AD74" s="33"/>
+      <c r="AE74" s="33"/>
+      <c r="AF74" s="33"/>
+      <c r="AG74" s="33"/>
+      <c r="AH74" s="33"/>
+      <c r="AI74" s="33"/>
+      <c r="AJ74" s="33"/>
+      <c r="AK74" s="33"/>
+      <c r="AL74" s="33"/>
+      <c r="AM74" s="33"/>
+      <c r="AN74" s="33"/>
+      <c r="AO74" s="33"/>
+      <c r="AP74" s="33"/>
+      <c r="AQ74" s="33"/>
+      <c r="AR74" s="33"/>
+      <c r="AS74" s="33"/>
+      <c r="AT74" s="33"/>
+      <c r="AU74" s="33"/>
+      <c r="AV74" s="33"/>
+      <c r="AW74" s="33"/>
+      <c r="AX74" s="33"/>
+      <c r="AY74" s="33"/>
+      <c r="AZ74" s="33"/>
+      <c r="BA74" s="33"/>
+      <c r="BB74" s="33"/>
+      <c r="BC74" s="33"/>
+      <c r="BD74" s="33"/>
+      <c r="BE74" s="33"/>
+      <c r="BF74" s="33"/>
+      <c r="BG74" s="33"/>
+      <c r="BH74" s="33"/>
+      <c r="BI74" s="33"/>
+      <c r="BJ74" s="33"/>
+      <c r="BK74" s="33"/>
+      <c r="BL74" s="33"/>
+    </row>
+    <row r="75" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="64"/>
+      <c r="B75" s="58"/>
+      <c r="C75" s="58"/>
+      <c r="D75" s="58"/>
+      <c r="E75" s="58"/>
+      <c r="F75" s="55"/>
+      <c r="G75" s="55"/>
+      <c r="H75" s="55"/>
+      <c r="I75" s="55"/>
+      <c r="J75" s="35"/>
+      <c r="K75" s="33"/>
+      <c r="L75" s="33"/>
+      <c r="M75" s="33"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="33"/>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="33"/>
+      <c r="U75" s="33"/>
+      <c r="V75" s="33"/>
+      <c r="W75" s="33"/>
+      <c r="X75" s="33"/>
+      <c r="Y75" s="33"/>
+      <c r="Z75" s="33"/>
+      <c r="AA75" s="33"/>
+      <c r="AB75" s="33"/>
+      <c r="AC75" s="33"/>
+      <c r="AD75" s="33"/>
+      <c r="AE75" s="33"/>
+      <c r="AF75" s="33"/>
+      <c r="AG75" s="33"/>
+      <c r="AH75" s="33"/>
+      <c r="AI75" s="33"/>
+      <c r="AJ75" s="33"/>
+      <c r="AK75" s="33"/>
+      <c r="AL75" s="33"/>
+      <c r="AM75" s="33"/>
+      <c r="AN75" s="33"/>
+      <c r="AO75" s="33"/>
+      <c r="AP75" s="33"/>
+      <c r="AQ75" s="33"/>
+      <c r="AR75" s="33"/>
+      <c r="AS75" s="33"/>
+      <c r="AT75" s="33"/>
+      <c r="AU75" s="33"/>
+      <c r="AV75" s="33"/>
+      <c r="AW75" s="33"/>
+      <c r="AX75" s="33"/>
+      <c r="AY75" s="33"/>
+      <c r="AZ75" s="33"/>
+      <c r="BA75" s="33"/>
+      <c r="BB75" s="33"/>
+      <c r="BC75" s="33"/>
+      <c r="BD75" s="33"/>
+      <c r="BE75" s="33"/>
+      <c r="BF75" s="33"/>
+      <c r="BG75" s="33"/>
+      <c r="BH75" s="33"/>
+      <c r="BI75" s="33"/>
+      <c r="BJ75" s="33"/>
+      <c r="BK75" s="33"/>
+      <c r="BL75" s="33"/>
+    </row>
+    <row r="76" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="37"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38"/>
+      <c r="E76" s="38"/>
+      <c r="F76" s="38"/>
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="38"/>
+      <c r="J76" s="39"/>
+      <c r="K76" s="33"/>
+      <c r="L76" s="33"/>
+      <c r="M76" s="33"/>
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="33"/>
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="33"/>
+      <c r="T76" s="33"/>
+      <c r="U76" s="33"/>
+      <c r="V76" s="33"/>
+      <c r="W76" s="33"/>
+      <c r="X76" s="33"/>
+      <c r="Y76" s="33"/>
+      <c r="Z76" s="33"/>
+      <c r="AA76" s="33"/>
+      <c r="AB76" s="33"/>
+      <c r="AC76" s="33"/>
+      <c r="AD76" s="33"/>
+      <c r="AE76" s="33"/>
+      <c r="AF76" s="33"/>
+      <c r="AG76" s="33"/>
+      <c r="AH76" s="33"/>
+      <c r="AI76" s="33"/>
+      <c r="AJ76" s="33"/>
+      <c r="AK76" s="33"/>
+      <c r="AL76" s="33"/>
+      <c r="AM76" s="33"/>
+      <c r="AN76" s="33"/>
+      <c r="AO76" s="33"/>
+      <c r="AP76" s="33"/>
+      <c r="AQ76" s="33"/>
+      <c r="AR76" s="33"/>
+      <c r="AS76" s="33"/>
+      <c r="AT76" s="33"/>
+      <c r="AU76" s="33"/>
+      <c r="AV76" s="33"/>
+      <c r="AW76" s="33"/>
+      <c r="AX76" s="33"/>
+      <c r="AY76" s="33"/>
+      <c r="AZ76" s="33"/>
+      <c r="BA76" s="33"/>
+      <c r="BB76" s="33"/>
+      <c r="BC76" s="33"/>
+      <c r="BD76" s="33"/>
+      <c r="BE76" s="33"/>
+      <c r="BF76" s="33"/>
+      <c r="BG76" s="33"/>
+      <c r="BH76" s="33"/>
+      <c r="BI76" s="33"/>
+      <c r="BJ76" s="33"/>
+      <c r="BK76" s="33"/>
+      <c r="BL76" s="33"/>
+    </row>
+    <row r="77" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="0"/>
+      <c r="B77" s="0"/>
+      <c r="C77" s="0"/>
+      <c r="D77" s="0"/>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+      <c r="G77" s="0"/>
+      <c r="H77" s="0"/>
+      <c r="I77" s="0"/>
+      <c r="J77" s="0"/>
+      <c r="K77" s="33"/>
+      <c r="L77" s="33"/>
+      <c r="M77" s="33"/>
+      <c r="N77" s="33"/>
+      <c r="O77" s="33"/>
+      <c r="P77" s="33"/>
+      <c r="Q77" s="33"/>
+      <c r="R77" s="33"/>
+      <c r="S77" s="33"/>
+      <c r="T77" s="33"/>
+      <c r="U77" s="33"/>
+      <c r="V77" s="33"/>
+      <c r="W77" s="33"/>
+      <c r="X77" s="33"/>
+      <c r="Y77" s="33"/>
+      <c r="Z77" s="33"/>
+      <c r="AA77" s="33"/>
+      <c r="AB77" s="33"/>
+      <c r="AC77" s="33"/>
+      <c r="AD77" s="33"/>
+      <c r="AE77" s="33"/>
+      <c r="AF77" s="33"/>
+      <c r="AG77" s="33"/>
+      <c r="AH77" s="33"/>
+      <c r="AI77" s="33"/>
+      <c r="AJ77" s="33"/>
+      <c r="AK77" s="33"/>
+      <c r="AL77" s="33"/>
+      <c r="AM77" s="33"/>
+      <c r="AN77" s="33"/>
+      <c r="AO77" s="33"/>
+      <c r="AP77" s="33"/>
+      <c r="AQ77" s="33"/>
+      <c r="AR77" s="33"/>
+      <c r="AS77" s="33"/>
+      <c r="AT77" s="33"/>
+      <c r="AU77" s="33"/>
+      <c r="AV77" s="33"/>
+      <c r="AW77" s="33"/>
+      <c r="AX77" s="33"/>
+      <c r="AY77" s="33"/>
+      <c r="AZ77" s="33"/>
+      <c r="BA77" s="33"/>
+      <c r="BB77" s="33"/>
+      <c r="BC77" s="33"/>
+      <c r="BD77" s="33"/>
+      <c r="BE77" s="33"/>
+      <c r="BF77" s="33"/>
+      <c r="BG77" s="33"/>
+      <c r="BH77" s="33"/>
+      <c r="BI77" s="33"/>
+      <c r="BJ77" s="33"/>
+      <c r="BK77" s="33"/>
+      <c r="BL77" s="33"/>
+    </row>
+    <row r="78" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="0"/>
+      <c r="B78" s="0"/>
+      <c r="C78" s="0"/>
+      <c r="D78" s="0"/>
+      <c r="E78" s="0"/>
+      <c r="F78" s="0"/>
+      <c r="G78" s="0"/>
+      <c r="H78" s="0"/>
+      <c r="I78" s="0"/>
+      <c r="J78" s="0"/>
+      <c r="K78" s="33"/>
+      <c r="L78" s="33"/>
+      <c r="M78" s="33"/>
+      <c r="N78" s="33"/>
+      <c r="O78" s="33"/>
+      <c r="P78" s="33"/>
+      <c r="Q78" s="33"/>
+      <c r="R78" s="33"/>
+      <c r="S78" s="33"/>
+      <c r="T78" s="33"/>
+      <c r="U78" s="33"/>
+      <c r="V78" s="33"/>
+      <c r="W78" s="33"/>
+      <c r="X78" s="33"/>
+      <c r="Y78" s="33"/>
+      <c r="Z78" s="33"/>
+      <c r="AA78" s="33"/>
+      <c r="AB78" s="33"/>
+      <c r="AC78" s="33"/>
+      <c r="AD78" s="33"/>
+      <c r="AE78" s="33"/>
+      <c r="AF78" s="33"/>
+      <c r="AG78" s="33"/>
+      <c r="AH78" s="33"/>
+      <c r="AI78" s="33"/>
+      <c r="AJ78" s="33"/>
+      <c r="AK78" s="33"/>
+      <c r="AL78" s="33"/>
+      <c r="AM78" s="33"/>
+      <c r="AN78" s="33"/>
+      <c r="AO78" s="33"/>
+      <c r="AP78" s="33"/>
+      <c r="AQ78" s="33"/>
+      <c r="AR78" s="33"/>
+      <c r="AS78" s="33"/>
+      <c r="AT78" s="33"/>
+      <c r="AU78" s="33"/>
+      <c r="AV78" s="33"/>
+      <c r="AW78" s="33"/>
+      <c r="AX78" s="33"/>
+      <c r="AY78" s="33"/>
+      <c r="AZ78" s="33"/>
+      <c r="BA78" s="33"/>
+      <c r="BB78" s="33"/>
+      <c r="BC78" s="33"/>
+      <c r="BD78" s="33"/>
+      <c r="BE78" s="33"/>
+      <c r="BF78" s="33"/>
+      <c r="BG78" s="33"/>
+      <c r="BH78" s="33"/>
+      <c r="BI78" s="33"/>
+      <c r="BJ78" s="33"/>
+      <c r="BK78" s="33"/>
+      <c r="BL78" s="33"/>
     </row>
     <row r="79" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
-      <c r="B79" s="66" t="s">
-        <v>161</v>
-      </c>
-      <c r="C79" s="66"/>
-      <c r="D79" s="67" t="s">
-        <v>162</v>
-      </c>
-      <c r="E79" s="67"/>
-      <c r="F79" s="68"/>
-      <c r="G79" s="66" t="s">
-        <v>163</v>
-      </c>
-      <c r="H79" s="64" t="s">
-        <v>164</v>
-      </c>
-      <c r="I79" s="64"/>
-      <c r="J79" s="63"/>
+      <c r="B79" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="65"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+      <c r="I79" s="66"/>
+      <c r="J79" s="65"/>
       <c r="K79" s="22"/>
       <c r="AMC79" s="0"/>
       <c r="AMD79" s="0"/>
@@ -5844,6 +6276,119 @@
       <c r="AMH79" s="0"/>
       <c r="AMI79" s="0"/>
       <c r="AMJ79" s="0"/>
+    </row>
+    <row r="80" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="1"/>
+      <c r="B80" s="66"/>
+      <c r="C80" s="66"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="66"/>
+      <c r="F80" s="66"/>
+      <c r="G80" s="66"/>
+      <c r="H80" s="66"/>
+      <c r="I80" s="66"/>
+      <c r="J80" s="65"/>
+      <c r="K80" s="22"/>
+      <c r="AMC80" s="0"/>
+      <c r="AMD80" s="0"/>
+      <c r="AME80" s="0"/>
+      <c r="AMF80" s="0"/>
+      <c r="AMG80" s="0"/>
+      <c r="AMH80" s="0"/>
+      <c r="AMI80" s="0"/>
+      <c r="AMJ80" s="0"/>
+    </row>
+    <row r="81" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A81" s="1"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+      <c r="I81" s="66"/>
+      <c r="J81" s="65"/>
+      <c r="K81" s="22"/>
+      <c r="AMC81" s="0"/>
+      <c r="AMD81" s="0"/>
+      <c r="AME81" s="0"/>
+      <c r="AMF81" s="0"/>
+      <c r="AMG81" s="0"/>
+      <c r="AMH81" s="0"/>
+      <c r="AMI81" s="0"/>
+      <c r="AMJ81" s="0"/>
+    </row>
+    <row r="82" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="1"/>
+      <c r="B82" s="66"/>
+      <c r="C82" s="66"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="66"/>
+      <c r="F82" s="66"/>
+      <c r="G82" s="66"/>
+      <c r="H82" s="66"/>
+      <c r="I82" s="66"/>
+      <c r="J82" s="65"/>
+      <c r="K82" s="22"/>
+      <c r="AMC82" s="0"/>
+      <c r="AMD82" s="0"/>
+      <c r="AME82" s="0"/>
+      <c r="AMF82" s="0"/>
+      <c r="AMG82" s="0"/>
+      <c r="AMH82" s="0"/>
+      <c r="AMI82" s="0"/>
+      <c r="AMJ82" s="0"/>
+    </row>
+    <row r="83" s="23" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
+      <c r="I83" s="67"/>
+      <c r="J83" s="67"/>
+      <c r="K83" s="22"/>
+      <c r="AMC83" s="0"/>
+      <c r="AMD83" s="0"/>
+      <c r="AME83" s="0"/>
+      <c r="AMF83" s="0"/>
+      <c r="AMG83" s="0"/>
+      <c r="AMH83" s="0"/>
+      <c r="AMI83" s="0"/>
+      <c r="AMJ83" s="0"/>
+    </row>
+    <row r="84" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A84" s="1"/>
+      <c r="B84" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="68"/>
+      <c r="D84" s="69" t="s">
+        <v>203</v>
+      </c>
+      <c r="E84" s="69"/>
+      <c r="F84" s="70"/>
+      <c r="G84" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="H84" s="66" t="s">
+        <v>205</v>
+      </c>
+      <c r="I84" s="66"/>
+      <c r="J84" s="65"/>
+      <c r="K84" s="22"/>
+      <c r="AMC84" s="0"/>
+      <c r="AMD84" s="0"/>
+      <c r="AME84" s="0"/>
+      <c r="AMF84" s="0"/>
+      <c r="AMG84" s="0"/>
+      <c r="AMH84" s="0"/>
+      <c r="AMI84" s="0"/>
+      <c r="AMJ84" s="0"/>
     </row>
   </sheetData>
   <mergeCells count="54">
@@ -5887,24 +6432,24 @@
     <mergeCell ref="B43:E44"/>
     <mergeCell ref="F43:I44"/>
     <mergeCell ref="B47:I48"/>
-    <mergeCell ref="B52:E53"/>
-    <mergeCell ref="F52:I53"/>
-    <mergeCell ref="B56:I57"/>
-    <mergeCell ref="B69:E70"/>
-    <mergeCell ref="F69:I70"/>
-    <mergeCell ref="B74:C74"/>
-    <mergeCell ref="D74:I74"/>
-    <mergeCell ref="B75:I75"/>
-    <mergeCell ref="B76:I76"/>
-    <mergeCell ref="B77:I77"/>
-    <mergeCell ref="A78:J78"/>
+    <mergeCell ref="B57:E58"/>
+    <mergeCell ref="F57:I58"/>
+    <mergeCell ref="B61:I62"/>
+    <mergeCell ref="B74:E75"/>
+    <mergeCell ref="F74:I75"/>
     <mergeCell ref="B79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="D79:I79"/>
+    <mergeCell ref="B80:I80"/>
+    <mergeCell ref="B81:I81"/>
+    <mergeCell ref="B82:I82"/>
+    <mergeCell ref="A83:J83"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="H84:I84"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="47" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="44" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/main/resources/ru/avem/kspem/app/protocolSG.xlsx
+++ b/src/main/resources/ru/avem/kspem/app/protocolSG.xlsx
@@ -20,15 +20,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="184">
+  <si>
+    <t xml:space="preserve">ООО «Авиаагрегат-Н»</t>
+  </si>
   <si>
     <t xml:space="preserve">г. Новочеркасск</t>
   </si>
   <si>
-    <t xml:space="preserve">АИЕЛ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зав. № </t>
+    <t xml:space="preserve">АИЕЛ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">441462.207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Зав. №  </t>
   </si>
   <si>
     <t xml:space="preserve">Протокол испытания №  </t>
@@ -253,15 +259,6 @@
     <t xml:space="preserve">I ов, А</t>
   </si>
   <si>
-    <t xml:space="preserve">#kzUAB1#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUBC1#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUCA1#</t>
-  </si>
-  <si>
     <t xml:space="preserve">#kzIA1#</t>
   </si>
   <si>
@@ -274,18 +271,6 @@
     <t xml:space="preserve">#kzIOV1#</t>
   </si>
   <si>
-    <t xml:space="preserve">#kzP1#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUAB2#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUBC2#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUCA2#</t>
-  </si>
-  <si>
     <t xml:space="preserve">#kzIA2#</t>
   </si>
   <si>
@@ -298,18 +283,6 @@
     <t xml:space="preserve">#kzIOV2#</t>
   </si>
   <si>
-    <t xml:space="preserve">#kzP2#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUAB3#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUBC3#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUCA3#</t>
-  </si>
-  <si>
     <t xml:space="preserve">#kzIA3#</t>
   </si>
   <si>
@@ -322,18 +295,6 @@
     <t xml:space="preserve">#kzIOV3#</t>
   </si>
   <si>
-    <t xml:space="preserve">#kzP3#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUAB4#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUBC4#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUCA4#</t>
-  </si>
-  <si>
     <t xml:space="preserve">#kzIA4#</t>
   </si>
   <si>
@@ -346,18 +307,6 @@
     <t xml:space="preserve">#kzIOV4#</t>
   </si>
   <si>
-    <t xml:space="preserve">#kzP4#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUAB5#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUBC5#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUCA5#</t>
-  </si>
-  <si>
     <t xml:space="preserve">#kzIA5#</t>
   </si>
   <si>
@@ -370,18 +319,6 @@
     <t xml:space="preserve">#kzIOV5#</t>
   </si>
   <si>
-    <t xml:space="preserve">#kzP5#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUAB6#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUBC6#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzUCA6#</t>
-  </si>
-  <si>
     <t xml:space="preserve">#kzIA6#</t>
   </si>
   <si>
@@ -392,9 +329,6 @@
   </si>
   <si>
     <t xml:space="preserve">#kzIOV6#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">#kzP6#</t>
   </si>
   <si>
     <t xml:space="preserve">#kzResult#</t>
@@ -1300,6 +1234,48 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>858240</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>310680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="0" name="Изображение 1" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="1079640" cy="1079640"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -1308,10 +1284,10 @@
   <dimension ref="A1:AMJ84"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A34" colorId="64" zoomScale="85" zoomScaleNormal="55" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P50" activeCellId="0" sqref="P50"/>
+      <selection pane="topLeft" activeCell="N52" activeCellId="0" sqref="N52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.0390625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.07421875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="2" style="1" width="17.71"/>
@@ -1324,12 +1300,14 @@
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
+      <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
       <c r="H1" s="4" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
@@ -1341,11 +1319,13 @@
       <c r="C2" s="2"/>
       <c r="D2" s="6"/>
       <c r="E2" s="7" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
+      <c r="H2" s="8" t="s">
+        <v>3</v>
+      </c>
       <c r="I2" s="8"/>
       <c r="J2" s="8"/>
       <c r="K2" s="9"/>
@@ -1357,10 +1337,12 @@
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="7" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
+      <c r="H3" s="8" t="n">
+        <v>211060143</v>
+      </c>
       <c r="I3" s="8"/>
       <c r="J3" s="8"/>
       <c r="K3" s="9"/>
@@ -1383,11 +1365,11 @@
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" s="12" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -1410,11 +1392,11 @@
     <row r="7" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="14"/>
       <c r="B7" s="11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="18"/>
@@ -1427,11 +1409,11 @@
     <row r="8" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="14"/>
       <c r="B8" s="11" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18"/>
@@ -1444,11 +1426,11 @@
     <row r="9" customFormat="false" ht="17.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="14"/>
       <c r="B9" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="17" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -1486,12 +1468,12 @@
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="25" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
       <c r="I11" s="25" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J11" s="21"/>
       <c r="K11" s="22"/>
@@ -1514,7 +1496,7 @@
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
       <c r="I12" s="25" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J12" s="21"/>
       <c r="K12" s="22"/>
@@ -1551,7 +1533,7 @@
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="26"/>
       <c r="B14" s="27" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27"/>
@@ -1685,25 +1667,25 @@
     <row r="16" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="30"/>
       <c r="B16" s="25" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E16" s="25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F16" s="25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H16" s="25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I16" s="34"/>
       <c r="J16" s="35"/>
@@ -1765,25 +1747,25 @@
     <row r="17" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="30"/>
       <c r="B17" s="25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F17" s="25" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H17" s="25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I17" s="34"/>
       <c r="J17" s="35"/>
@@ -1977,7 +1959,7 @@
     <row r="20" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="26"/>
       <c r="B20" s="40" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C20" s="40"/>
       <c r="D20" s="40"/>
@@ -2112,22 +2094,22 @@
       <c r="A22" s="30"/>
       <c r="B22" s="0"/>
       <c r="C22" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D22" s="42" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="G22" s="42" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I22" s="43"/>
       <c r="J22" s="35"/>
@@ -2189,25 +2171,25 @@
     <row r="23" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="30"/>
       <c r="B23" s="25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C23" s="25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D23" s="42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="H23" s="44" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I23" s="44"/>
       <c r="J23" s="35"/>
@@ -2401,7 +2383,7 @@
     <row r="26" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A26" s="26"/>
       <c r="B26" s="40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C26" s="40"/>
       <c r="D26" s="40"/>
@@ -2535,18 +2517,18 @@
     <row r="28" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="30"/>
       <c r="B28" s="25" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C28" s="25"/>
       <c r="D28" s="25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E28" s="25"/>
       <c r="F28" s="46" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G28" s="46" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H28" s="46"/>
       <c r="I28" s="34"/>
@@ -2609,18 +2591,18 @@
     <row r="29" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="30"/>
       <c r="B29" s="25" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29" s="25"/>
       <c r="D29" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E29" s="25"/>
       <c r="F29" s="25" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H29" s="25"/>
       <c r="I29" s="34"/>
@@ -2815,7 +2797,7 @@
     <row r="32" customFormat="false" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="26"/>
       <c r="B32" s="40" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C32" s="40"/>
       <c r="D32" s="40"/>
@@ -2949,19 +2931,19 @@
     <row r="34" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="30"/>
       <c r="B34" s="25" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C34" s="25"/>
       <c r="D34" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E34" s="25"/>
       <c r="F34" s="25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G34" s="25"/>
       <c r="H34" s="25" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I34" s="25"/>
       <c r="J34" s="35"/>
@@ -3023,19 +3005,19 @@
     <row r="35" customFormat="false" ht="14.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="30"/>
       <c r="B35" s="25" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C35" s="25"/>
       <c r="D35" s="25" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E35" s="25"/>
       <c r="F35" s="25" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G35" s="25"/>
       <c r="H35" s="25" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="I35" s="25"/>
       <c r="J35" s="35"/>
@@ -3229,7 +3211,7 @@
     <row r="38" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="50"/>
       <c r="B38" s="51" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C38" s="51"/>
       <c r="D38" s="51"/>
@@ -3363,28 +3345,28 @@
     <row r="40" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="53"/>
       <c r="B40" s="55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C40" s="55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D40" s="55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E40" s="55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F40" s="55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G40" s="55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H40" s="55" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I40" s="55" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="J40" s="56"/>
       <c r="K40" s="33"/>
@@ -3445,28 +3427,28 @@
     <row r="41" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="53"/>
       <c r="B41" s="55" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C41" s="55" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D41" s="55" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E41" s="55" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F41" s="55" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G41" s="55" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H41" s="55" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I41" s="55" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="J41" s="56"/>
       <c r="K41" s="33"/>
@@ -3593,13 +3575,13 @@
     <row r="43" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="53"/>
       <c r="B43" s="58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C43" s="58"/>
       <c r="D43" s="58"/>
       <c r="E43" s="58"/>
       <c r="F43" s="55" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G43" s="55"/>
       <c r="H43" s="55"/>
@@ -3861,7 +3843,7 @@
     <row r="47" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="50"/>
       <c r="B47" s="51" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C47" s="51"/>
       <c r="D47" s="51"/>
@@ -3995,29 +3977,21 @@
     <row r="49" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A49" s="53"/>
       <c r="B49" s="55" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="55" t="s">
-        <v>60</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C49" s="55"/>
       <c r="D49" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" s="55" t="s">
-        <v>62</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="E49" s="55"/>
       <c r="F49" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="G49" s="55" t="s">
-        <v>64</v>
-      </c>
-      <c r="H49" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="I49" s="63" t="s">
-        <v>15</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="I49" s="55"/>
       <c r="J49" s="56"/>
       <c r="K49" s="33"/>
       <c r="L49" s="33"/>
@@ -4077,29 +4051,21 @@
     <row r="50" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A50" s="53"/>
       <c r="B50" s="55" t="s">
-        <v>77</v>
-      </c>
-      <c r="C50" s="55" t="s">
-        <v>78</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C50" s="55"/>
       <c r="D50" s="55" t="s">
-        <v>79</v>
-      </c>
-      <c r="E50" s="55" t="s">
         <v>80</v>
       </c>
+      <c r="E50" s="55"/>
       <c r="F50" s="55" t="s">
         <v>81</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="G50" s="55"/>
+      <c r="H50" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="H50" s="63" t="s">
-        <v>83</v>
-      </c>
-      <c r="I50" s="63" t="s">
-        <v>84</v>
-      </c>
+      <c r="I50" s="55"/>
       <c r="J50" s="56"/>
       <c r="K50" s="33"/>
       <c r="L50" s="33"/>
@@ -4159,29 +4125,21 @@
     <row r="51" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A51" s="53"/>
       <c r="B51" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="55"/>
+      <c r="D51" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="E51" s="55"/>
+      <c r="F51" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C51" s="55" t="s">
+      <c r="G51" s="55"/>
+      <c r="H51" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="D51" s="55" t="s">
-        <v>87</v>
-      </c>
-      <c r="E51" s="55" t="s">
-        <v>88</v>
-      </c>
-      <c r="F51" s="55" t="s">
-        <v>89</v>
-      </c>
-      <c r="G51" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="H51" s="63" t="s">
-        <v>91</v>
-      </c>
-      <c r="I51" s="63" t="s">
-        <v>92</v>
-      </c>
+      <c r="I51" s="55"/>
       <c r="J51" s="56"/>
       <c r="K51" s="33"/>
       <c r="L51" s="33"/>
@@ -4241,29 +4199,21 @@
     <row r="52" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A52" s="53"/>
       <c r="B52" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C52" s="55" t="s">
-        <v>94</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="C52" s="55"/>
       <c r="D52" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="E52" s="55" t="s">
-        <v>96</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="E52" s="55"/>
       <c r="F52" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="G52" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="H52" s="63" t="s">
-        <v>99</v>
-      </c>
-      <c r="I52" s="63" t="s">
-        <v>100</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G52" s="55"/>
+      <c r="H52" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="I52" s="55"/>
       <c r="J52" s="56"/>
       <c r="K52" s="33"/>
       <c r="L52" s="33"/>
@@ -4323,29 +4273,21 @@
     <row r="53" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="53"/>
       <c r="B53" s="55" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" s="55" t="s">
-        <v>102</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="C53" s="55"/>
       <c r="D53" s="55" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" s="55" t="s">
-        <v>104</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="E53" s="55"/>
       <c r="F53" s="55" t="s">
-        <v>105</v>
-      </c>
-      <c r="G53" s="55" t="s">
-        <v>106</v>
-      </c>
-      <c r="H53" s="63" t="s">
-        <v>107</v>
-      </c>
-      <c r="I53" s="63" t="s">
-        <v>108</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G53" s="55"/>
+      <c r="H53" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="I53" s="55"/>
       <c r="J53" s="56"/>
       <c r="K53" s="33"/>
       <c r="L53" s="33"/>
@@ -4405,29 +4347,21 @@
     <row r="54" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A54" s="53"/>
       <c r="B54" s="55" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54" s="55" t="s">
-        <v>110</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C54" s="55"/>
       <c r="D54" s="55" t="s">
-        <v>111</v>
-      </c>
-      <c r="E54" s="55" t="s">
-        <v>112</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E54" s="55"/>
       <c r="F54" s="55" t="s">
-        <v>113</v>
-      </c>
-      <c r="G54" s="55" t="s">
-        <v>114</v>
-      </c>
-      <c r="H54" s="63" t="s">
-        <v>115</v>
-      </c>
-      <c r="I54" s="63" t="s">
-        <v>116</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="G54" s="55"/>
+      <c r="H54" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="I54" s="55"/>
       <c r="J54" s="56"/>
       <c r="K54" s="33"/>
       <c r="L54" s="33"/>
@@ -4487,29 +4421,21 @@
     <row r="55" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="53"/>
       <c r="B55" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="C55" s="55" t="s">
-        <v>118</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C55" s="55"/>
       <c r="D55" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E55" s="55" t="s">
-        <v>120</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="E55" s="55"/>
       <c r="F55" s="55" t="s">
-        <v>121</v>
-      </c>
-      <c r="G55" s="55" t="s">
-        <v>122</v>
-      </c>
-      <c r="H55" s="63" t="s">
-        <v>123</v>
-      </c>
-      <c r="I55" s="63" t="s">
-        <v>124</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="G55" s="55"/>
+      <c r="H55" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" s="55"/>
       <c r="J55" s="56"/>
       <c r="K55" s="33"/>
       <c r="L55" s="33"/>
@@ -4635,13 +4561,13 @@
     <row r="57" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="53"/>
       <c r="B57" s="58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C57" s="58"/>
       <c r="D57" s="58"/>
       <c r="E57" s="58"/>
       <c r="F57" s="55" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="G57" s="55"/>
       <c r="H57" s="55"/>
@@ -4903,7 +4829,7 @@
     <row r="61" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A61" s="26"/>
       <c r="B61" s="27" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="C61" s="27"/>
       <c r="D61" s="27"/>
@@ -5037,28 +4963,28 @@
     <row r="63" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="30"/>
       <c r="B63" s="55" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C63" s="55" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D63" s="55" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E63" s="55" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F63" s="55" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G63" s="55" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H63" s="63" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="I63" s="63" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="J63" s="35"/>
       <c r="K63" s="33"/>
@@ -5119,28 +5045,28 @@
     <row r="64" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="30"/>
       <c r="B64" s="55" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="C64" s="55" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D64" s="55" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="F64" s="55" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="G64" s="55" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="H64" s="63" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="I64" s="63" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="J64" s="35"/>
       <c r="K64" s="33"/>
@@ -5201,28 +5127,28 @@
     <row r="65" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A65" s="30"/>
       <c r="B65" s="55" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
       <c r="C65" s="55" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D65" s="55" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="E65" s="55" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="F65" s="55" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="G65" s="55" t="s">
-        <v>141</v>
+        <v>119</v>
       </c>
       <c r="H65" s="63" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="I65" s="63" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="J65" s="35"/>
       <c r="K65" s="33"/>
@@ -5283,28 +5209,28 @@
     <row r="66" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="30"/>
       <c r="B66" s="55" t="s">
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="C66" s="55" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="D66" s="55" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
       <c r="F66" s="55" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="G66" s="55" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="H66" s="63" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="I66" s="63" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="J66" s="35"/>
       <c r="K66" s="33"/>
@@ -5365,28 +5291,28 @@
     <row r="67" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="30"/>
       <c r="B67" s="55" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="C67" s="55" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="D67" s="55" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="E67" s="55" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="F67" s="55" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="G67" s="55" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="H67" s="63" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="I67" s="63" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="J67" s="35"/>
       <c r="K67" s="33"/>
@@ -5447,28 +5373,28 @@
     <row r="68" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="64"/>
       <c r="B68" s="55" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="C68" s="55" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="D68" s="55" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="F68" s="55" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="G68" s="55" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="H68" s="63" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="I68" s="63" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="J68" s="35"/>
       <c r="K68" s="33"/>
@@ -5529,28 +5455,28 @@
     <row r="69" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="64"/>
       <c r="B69" s="55" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="C69" s="55" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="D69" s="55" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="E69" s="55" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="F69" s="55" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G69" s="55" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="H69" s="63" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="I69" s="63" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="J69" s="35"/>
       <c r="K69" s="33"/>
@@ -5611,28 +5537,28 @@
     <row r="70" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="64"/>
       <c r="B70" s="55" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="C70" s="55" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="D70" s="55" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="F70" s="55" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="G70" s="55" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="H70" s="63" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="I70" s="63" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="J70" s="35"/>
       <c r="K70" s="33"/>
@@ -5693,28 +5619,28 @@
     <row r="71" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="64"/>
       <c r="B71" s="55" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="C71" s="55" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D71" s="55" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="E71" s="55" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="F71" s="55" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="G71" s="55" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="H71" s="63" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="I71" s="63" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="J71" s="35"/>
       <c r="K71" s="33"/>
@@ -5775,28 +5701,28 @@
     <row r="72" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="64"/>
       <c r="B72" s="55" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="C72" s="55" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="D72" s="55" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="E72" s="55" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="F72" s="55" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
       <c r="G72" s="55" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
       <c r="H72" s="63" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
       <c r="I72" s="63" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="J72" s="35"/>
       <c r="K72" s="33"/>
@@ -5923,13 +5849,13 @@
     <row r="74" customFormat="false" ht="20.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A74" s="64"/>
       <c r="B74" s="58" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C74" s="58"/>
       <c r="D74" s="58"/>
       <c r="E74" s="58"/>
       <c r="F74" s="55" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="G74" s="55"/>
       <c r="H74" s="55"/>
@@ -6257,7 +6183,7 @@
     <row r="79" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="1"/>
       <c r="B79" s="65" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="C79" s="65"/>
       <c r="D79" s="66"/>
@@ -6364,19 +6290,19 @@
     <row r="84" s="23" customFormat="true" ht="22.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A84" s="1"/>
       <c r="B84" s="68" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
       <c r="C84" s="68"/>
       <c r="D84" s="69" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
       <c r="E84" s="69"/>
       <c r="F84" s="70"/>
       <c r="G84" s="68" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
       <c r="H84" s="66" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
       <c r="I84" s="66"/>
       <c r="J84" s="65"/>
@@ -6391,7 +6317,7 @@
       <c r="AMJ84" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="54">
+  <mergeCells count="82">
     <mergeCell ref="A1:C6"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -6432,6 +6358,34 @@
     <mergeCell ref="B43:E44"/>
     <mergeCell ref="F43:I44"/>
     <mergeCell ref="B47:I48"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="B50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="H50:I50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
     <mergeCell ref="B57:E58"/>
     <mergeCell ref="F57:I58"/>
     <mergeCell ref="B61:I62"/>
@@ -6449,10 +6403,11 @@
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.590277777777778" top="0.590277777777778" bottom="0.590277777777778" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="44" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="44" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>